--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65EE524-D1C7-4E14-910E-19A6EC5875A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadawais/Seminar/dsdm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDD5D2-F6E0-0846-97BB-DB0EF8BEC9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="-21600" windowWidth="19000" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,136 +475,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
